--- a/Column Descriptions.xlsx
+++ b/Column Descriptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gigepogden/Desktop/Flatiron/Capstone Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gigepogden/Desktop/Flatiron/Capstone Projects/Capstone_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F4BC9F-D630-1743-AF47-CB5A241C7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A114278E-27EF-6545-AEB6-C7DE3E20C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{F0650C1E-4A2D-0C4B-8FA4-58D9FCDD46BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>BIGDATABALL
 DATASET</t>
@@ -240,6 +240,132 @@
   <si>
     <t>HOME TEAM'S 
 GOALIE</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Game_ID</t>
+  </si>
+  <si>
+    <t>Custom Name</t>
+  </si>
+  <si>
+    <t>Original Header</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Score_Away</t>
+  </si>
+  <si>
+    <t>Score_Home</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Time_Remaining</t>
+  </si>
+  <si>
+    <t>Time_Elapsed</t>
+  </si>
+  <si>
+    <t>PlayID</t>
+  </si>
+  <si>
+    <t>Play_Length</t>
+  </si>
+  <si>
+    <t>Play_SubType</t>
+  </si>
+  <si>
+    <t>Play_Type</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Play_Team</t>
+  </si>
+  <si>
+    <t>Play_Agent1</t>
+  </si>
+  <si>
+    <t>Play_Agent2</t>
+  </si>
+  <si>
+    <t>Play_Agent3</t>
+  </si>
+  <si>
+    <t>Shot_Distance</t>
+  </si>
+  <si>
+    <t>X_Coordinate</t>
+  </si>
+  <si>
+    <t>Y_Coordinate</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Away_Strength</t>
+  </si>
+  <si>
+    <t>Away_Agent1</t>
+  </si>
+  <si>
+    <t>Away_Agent2</t>
+  </si>
+  <si>
+    <t>Away_Agent3</t>
+  </si>
+  <si>
+    <t>Away_Agent4</t>
+  </si>
+  <si>
+    <t>Away_Agent5</t>
+  </si>
+  <si>
+    <t>Away_Agent6</t>
+  </si>
+  <si>
+    <t>Away_Goalie</t>
+  </si>
+  <si>
+    <t>Home_Strength</t>
+  </si>
+  <si>
+    <t>Home_Agent1</t>
+  </si>
+  <si>
+    <t>Home_Agent2</t>
+  </si>
+  <si>
+    <t>Home_Agent3</t>
+  </si>
+  <si>
+    <t>Home_Agent4</t>
+  </si>
+  <si>
+    <t>Home_Agent5</t>
+  </si>
+  <si>
+    <t>Home_Agent6</t>
+  </si>
+  <si>
+    <t>Home_Goalie</t>
   </si>
 </sst>
 </file>
@@ -611,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBEA477-B183-B64D-82CD-9B9596E15EA1}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,204 +748,332 @@
     <col min="1" max="1" width="103.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
